--- a/INACAPestadisticaSede/rect/04_Calama.xlsx
+++ b/INACAPestadisticaSede/rect/04_Calama.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\INACAPestadisticaSede\rect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5679C692-054A-45AA-8E2A-4A35D0B8E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EstabporTipoEmision" sheetId="1" r:id="rId1"/>
-    <sheet name="EstabporRubroTipoEmision" sheetId="2" r:id="rId2"/>
-    <sheet name="DetalleEstablecimientos" sheetId="3" r:id="rId3"/>
+    <sheet name="INICIO" sheetId="4" r:id="rId1"/>
+    <sheet name="EstabporTipoEmision" sheetId="1" r:id="rId2"/>
+    <sheet name="EstabporRubroTipoEmision" sheetId="2" r:id="rId3"/>
+    <sheet name="DetalleEstablecimientos" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="502">
   <si>
     <t>Comuna</t>
   </si>
@@ -1489,13 +1496,46 @@
   </si>
   <si>
     <t>SUB ESTACION ANDES</t>
+  </si>
+  <si>
+    <t>Detalle de Bases de Datos de Establecimientos Generadores de Emisiones 2021 [MMA-RETC]</t>
+  </si>
+  <si>
+    <t>Seleccione alguna de las celdas coloreadas para ver los detalles. Puede regresar a esta página haciendo click en la celda INICIO dispuesta en cada tabla detallada.</t>
+  </si>
+  <si>
+    <t>Niveles</t>
+  </si>
+  <si>
+    <t>Vínculo</t>
+  </si>
+  <si>
+    <t>Establecimientos</t>
+  </si>
+  <si>
+    <t>Tipo de Emisión</t>
+  </si>
+  <si>
+    <t>EstabporTipoEmision</t>
+  </si>
+  <si>
+    <t>EstabporRubroTipoEmision</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>DetalleEstablecimientos</t>
+  </si>
+  <si>
+    <t>INICIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1511,16 +1551,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1543,26 +1624,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{38AF9103-5975-4DD3-99D8-E71B62CC5604}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1604,7 +1802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1636,9 +1834,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1670,6 +1886,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1845,1941 +2079,469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FFF9B3-67EB-4209-BA25-9AD2F7E4E4BE}">
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>42</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" location="EstabporTipoEmision!A1" display="EstabporTipoEmision" xr:uid="{9B4AA6C6-B11A-4EBA-BC9B-09059CC73CDD}"/>
+    <hyperlink ref="F6" location="EstabporRubroTipoEmision!A1" display="EstabporRubroTipoEmision" xr:uid="{01744EB4-99DA-47CB-845E-1CD7F8E5EF54}"/>
+    <hyperlink ref="F7" location="DetalleEstablecimientos!A1" display="DetalleEstablecimientos" xr:uid="{BE9EFB09-A6D1-4336-B307-1914D0C87AA4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-      <c r="I21">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>6</v>
-      </c>
-      <c r="I41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
-      <c r="I54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="I58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="I60">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{4A0D9F12-AAF9-464A-8F40-56F6219A8662}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H356"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3787,6 +2549,1608 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{B27F1A8E-AE1F-4D77-B937-66F752748FE0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K356"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3804,8 +4168,11 @@
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="K1" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3831,7 +4198,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3857,7 +4224,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3883,7 +4250,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3909,7 +4276,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3935,7 +4302,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3961,7 +4328,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3987,7 +4354,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4013,7 +4380,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4039,7 +4406,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4065,7 +4432,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4091,7 +4458,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4117,7 +4484,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4143,7 +4510,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4169,7 +4536,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4195,7 +4562,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4221,7 +4588,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4247,7 +4614,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4273,7 +4640,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4299,7 +4666,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4325,7 +4692,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4351,7 +4718,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4377,7 +4744,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4403,7 +4770,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4429,7 +4796,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -4455,7 +4822,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4481,7 +4848,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4507,7 +4874,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4533,7 +4900,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4559,7 +4926,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -4585,7 +4952,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4611,7 +4978,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -4637,7 +5004,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4663,7 +5030,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4689,7 +5056,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -4715,7 +5082,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -4741,7 +5108,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -4767,7 +5134,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -4793,7 +5160,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -4819,7 +5186,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -4845,7 +5212,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -4871,7 +5238,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -4897,7 +5264,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -4923,7 +5290,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -4949,7 +5316,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -4975,7 +5342,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -5001,7 +5368,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -5027,7 +5394,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -5053,7 +5420,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -5079,7 +5446,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -5105,7 +5472,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -5131,7 +5498,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -5157,7 +5524,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -5183,7 +5550,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -5209,7 +5576,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -5235,7 +5602,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -5261,7 +5628,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -5287,7 +5654,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -5313,7 +5680,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -5339,7 +5706,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -5365,7 +5732,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -5391,7 +5758,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -5417,7 +5784,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -5443,7 +5810,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -5469,7 +5836,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -5495,7 +5862,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -5521,7 +5888,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5547,7 +5914,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -5573,7 +5940,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -5599,7 +5966,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5625,7 +5992,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -5651,7 +6018,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -5677,7 +6044,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5703,7 +6070,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5729,7 +6096,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5755,7 +6122,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -5781,7 +6148,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -5807,7 +6174,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -5833,7 +6200,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -5859,7 +6226,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -5885,7 +6252,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -5911,7 +6278,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -5937,7 +6304,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -5963,7 +6330,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -5989,7 +6356,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -6015,7 +6382,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -6041,7 +6408,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -6067,7 +6434,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -6093,7 +6460,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -6119,7 +6486,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -6145,7 +6512,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -6171,7 +6538,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -6197,7 +6564,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -6223,7 +6590,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -6249,7 +6616,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -6275,7 +6642,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -6301,7 +6668,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -6327,7 +6694,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -6353,7 +6720,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -6379,7 +6746,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -6405,7 +6772,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -6431,7 +6798,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -6457,7 +6824,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -6483,7 +6850,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -6509,7 +6876,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -6535,7 +6902,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -6561,7 +6928,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -6587,7 +6954,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -6613,7 +6980,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -6639,7 +7006,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -6665,7 +7032,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -6691,7 +7058,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -6717,7 +7084,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -6743,7 +7110,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -6769,7 +7136,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -6795,7 +7162,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -6821,7 +7188,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -6847,7 +7214,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -6873,7 +7240,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -6899,7 +7266,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -6925,7 +7292,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -6951,7 +7318,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -6977,7 +7344,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -7003,7 +7370,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -7029,7 +7396,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -7055,7 +7422,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -7081,7 +7448,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -7107,7 +7474,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -7133,7 +7500,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -7159,7 +7526,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -7185,7 +7552,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -7211,7 +7578,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -7237,7 +7604,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -7263,7 +7630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -7289,7 +7656,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -7315,7 +7682,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -7341,7 +7708,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -7367,7 +7734,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -7393,7 +7760,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -7419,7 +7786,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -7445,7 +7812,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -7471,7 +7838,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -7497,7 +7864,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -7523,7 +7890,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -7549,7 +7916,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -7575,7 +7942,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -7601,7 +7968,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -7627,7 +7994,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -7653,7 +8020,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -7679,7 +8046,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -7705,7 +8072,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -7731,7 +8098,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -7757,7 +8124,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -7783,7 +8150,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -7809,7 +8176,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -7835,7 +8202,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -7861,7 +8228,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -7887,7 +8254,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -7913,7 +8280,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -7939,7 +8306,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -7965,7 +8332,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -7991,7 +8358,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -8017,7 +8384,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -8043,7 +8410,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -8069,7 +8436,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -8095,7 +8462,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -8121,7 +8488,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -8147,7 +8514,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -8173,7 +8540,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -8199,7 +8566,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -8225,7 +8592,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -8251,7 +8618,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -8277,7 +8644,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -8303,7 +8670,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -8329,7 +8696,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -8355,7 +8722,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -8381,7 +8748,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -8407,7 +8774,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -8433,7 +8800,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -8459,7 +8826,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -8485,7 +8852,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -8511,7 +8878,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -8537,7 +8904,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -8563,7 +8930,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -8589,7 +8956,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -8615,7 +8982,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -8641,7 +9008,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -8667,7 +9034,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -8693,7 +9060,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -8719,7 +9086,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -8745,7 +9112,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -8771,7 +9138,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -8797,7 +9164,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -8823,7 +9190,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -8849,7 +9216,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -8875,7 +9242,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -8901,7 +9268,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -8927,7 +9294,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -8953,7 +9320,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -8979,7 +9346,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -9005,7 +9372,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -9031,7 +9398,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -9057,7 +9424,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -9083,7 +9450,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -9109,7 +9476,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -9135,7 +9502,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -9161,7 +9528,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -9187,7 +9554,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -9213,7 +9580,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -9239,7 +9606,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -9265,7 +9632,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -9291,7 +9658,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -9317,7 +9684,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -9343,7 +9710,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -9369,7 +9736,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -9395,7 +9762,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -9421,7 +9788,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -9447,7 +9814,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -9473,7 +9840,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -9499,7 +9866,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -9525,7 +9892,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -9551,7 +9918,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -9577,7 +9944,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -9603,7 +9970,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -9629,7 +9996,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -9655,7 +10022,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -9681,7 +10048,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -9707,7 +10074,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -9733,7 +10100,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -9759,7 +10126,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -9785,7 +10152,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -9811,7 +10178,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -9837,7 +10204,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -9863,7 +10230,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -9889,7 +10256,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -9915,7 +10282,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -9941,7 +10308,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -9967,7 +10334,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -9993,7 +10360,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -10019,7 +10386,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -10045,7 +10412,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -10071,7 +10438,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -10097,7 +10464,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -10123,7 +10490,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -10149,7 +10516,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -10175,7 +10542,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -10201,7 +10568,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -10227,7 +10594,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -10253,7 +10620,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -10279,7 +10646,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -10305,7 +10672,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -10331,7 +10698,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -10357,7 +10724,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -10383,7 +10750,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -10409,7 +10776,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -10435,7 +10802,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -10461,7 +10828,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -10487,7 +10854,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -10513,7 +10880,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -10539,7 +10906,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -10565,7 +10932,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -10591,7 +10958,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -10617,7 +10984,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -10643,7 +11010,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -10669,7 +11036,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -10695,7 +11062,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -10721,7 +11088,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -10747,7 +11114,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -10773,7 +11140,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -10799,7 +11166,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -10825,7 +11192,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -10851,7 +11218,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -10877,7 +11244,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -10903,7 +11270,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -10929,7 +11296,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -10955,7 +11322,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -10981,7 +11348,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -11007,7 +11374,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -11033,7 +11400,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -11059,7 +11426,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -11085,7 +11452,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -11111,7 +11478,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -11137,7 +11504,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -11163,7 +11530,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -11189,7 +11556,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -11215,7 +11582,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -11241,7 +11608,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -11267,7 +11634,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -11293,7 +11660,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -11319,7 +11686,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -11345,7 +11712,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -11371,7 +11738,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -11397,7 +11764,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -11423,7 +11790,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -11449,7 +11816,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -11475,7 +11842,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -11501,7 +11868,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -11527,7 +11894,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -11553,7 +11920,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -11579,7 +11946,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -11605,7 +11972,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -11631,7 +11998,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -11657,7 +12024,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -11683,7 +12050,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -11709,7 +12076,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -11735,7 +12102,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>8</v>
       </c>
@@ -11761,7 +12128,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -11787,7 +12154,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>8</v>
       </c>
@@ -11813,7 +12180,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -11839,7 +12206,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -11865,7 +12232,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -11891,7 +12258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -11917,7 +12284,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -11943,7 +12310,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -11969,7 +12336,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -11995,7 +12362,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -12021,7 +12388,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -12047,7 +12414,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -12073,7 +12440,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -12099,7 +12466,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -12125,7 +12492,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>8</v>
       </c>
@@ -12151,7 +12518,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -12177,7 +12544,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -12203,7 +12570,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -12229,7 +12596,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -12255,7 +12622,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -12281,7 +12648,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -12307,7 +12674,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>8</v>
       </c>
@@ -12333,7 +12700,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -12359,7 +12726,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -12385,7 +12752,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -12411,7 +12778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -12437,7 +12804,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -12463,7 +12830,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -12489,7 +12856,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -12515,7 +12882,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>10</v>
       </c>
@@ -12541,7 +12908,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>10</v>
       </c>
@@ -12567,7 +12934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>10</v>
       </c>
@@ -12593,7 +12960,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>10</v>
       </c>
@@ -12619,7 +12986,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>10</v>
       </c>
@@ -12645,7 +13012,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -12671,7 +13038,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -12697,7 +13064,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>10</v>
       </c>
@@ -12723,7 +13090,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>10</v>
       </c>
@@ -12749,7 +13116,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>10</v>
       </c>
@@ -12775,7 +13142,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>10</v>
       </c>
@@ -12801,7 +13168,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>10</v>
       </c>
@@ -12827,7 +13194,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>10</v>
       </c>
@@ -12853,7 +13220,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>10</v>
       </c>
@@ -12879,7 +13246,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>10</v>
       </c>
@@ -12905,7 +13272,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>10</v>
       </c>
@@ -12931,7 +13298,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>10</v>
       </c>
@@ -12957,7 +13324,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>10</v>
       </c>
@@ -12983,7 +13350,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>10</v>
       </c>
@@ -13009,7 +13376,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>10</v>
       </c>
@@ -13036,6 +13403,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{DC9F100F-46B0-441A-8FA5-C771548BC6E8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>